--- a/Data .xlsx
+++ b/Data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freek\OneDrive\school\2.3\AdvancedTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55766D-EC0B-46CA-AB4C-724268C56469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C917D2-9077-4BE8-ABDD-73D3DDDF6A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{AE0F48D8-F221-4AA8-B96F-54541CA02FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE0F48D8-F221-4AA8-B96F-54541CA02FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,22 +382,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,22 +434,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +522,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -796,19 +795,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>231</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -875,19 +874,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>179</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
@@ -927,22 +926,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,22 +978,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,22 +1470,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,22 +1522,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3832,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80049E5-D0E6-4909-B40D-F09B7B835D1C}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,10 +3879,10 @@
         <v>174</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L3">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3897,10 +3896,10 @@
         <v>142</v>
       </c>
       <c r="I4">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3914,10 +3913,10 @@
         <v>46</v>
       </c>
       <c r="I5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3931,10 +3930,10 @@
         <v>21</v>
       </c>
       <c r="I6">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3948,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3965,10 +3964,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -3981,16 +3980,16 @@
         <v>100</v>
       </c>
       <c r="C23">
+        <v>179</v>
+      </c>
+      <c r="F23">
         <v>231</v>
       </c>
-      <c r="F23">
-        <v>179</v>
-      </c>
       <c r="I23">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3998,16 +3997,16 @@
         <v>500</v>
       </c>
       <c r="C24">
+        <v>128</v>
+      </c>
+      <c r="F24">
         <v>138</v>
       </c>
-      <c r="F24">
-        <v>128</v>
-      </c>
       <c r="I24">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4015,16 +4014,16 @@
         <v>1000</v>
       </c>
       <c r="C25">
+        <v>96</v>
+      </c>
+      <c r="F25">
         <v>100</v>
       </c>
-      <c r="F25">
-        <v>96</v>
-      </c>
       <c r="I25">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4032,16 +4031,16 @@
         <v>5000</v>
       </c>
       <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="F26">
         <v>20</v>
       </c>
-      <c r="F26">
-        <v>21</v>
-      </c>
       <c r="I26">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4049,16 +4048,16 @@
         <v>10000</v>
       </c>
       <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
       <c r="I27">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4072,10 +4071,10 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.35">
@@ -4094,10 +4093,10 @@
         <v>205</v>
       </c>
       <c r="I35">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="L35">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4111,10 +4110,10 @@
         <v>166</v>
       </c>
       <c r="I36">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L36">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4128,10 +4127,10 @@
         <v>132</v>
       </c>
       <c r="I37">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L37">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4145,10 +4144,10 @@
         <v>29</v>
       </c>
       <c r="I38">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4162,10 +4161,10 @@
         <v>7</v>
       </c>
       <c r="I39">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4179,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
